--- a/statistics/HistoricalDistanceData/historical_distance/Q20295077-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q20295077-en.xlsx
@@ -31,60 +31,60 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Tunisia attack inquests put back to 2017</t>
+  </si>
+  <si>
     <t>Tunisia to shut illegal mosques as IS claims deadly hotel attack</t>
   </si>
   <si>
+    <t>PM to chair emergency Cobra meeting after Tunisia attacks</t>
+  </si>
+  <si>
+    <t>Family shocked as Tunis 'break-dance star' becomes mass murderer</t>
+  </si>
+  <si>
+    <t>How Britain and the EU allowed jihadists to wage war on their own tourists</t>
+  </si>
+  <si>
+    <t>Duke of Sussex unveils Sousse and Bardo Memorial</t>
+  </si>
+  <si>
     <t>Tunisia to close 80 mosques following terror attack</t>
   </si>
   <si>
-    <t>Tunisia attack inquests put back to 2017</t>
-  </si>
-  <si>
     <t>Consider Syria IS strikes, defence secretary urges MPs</t>
   </si>
   <si>
-    <t>How Britain and the EU allowed jihadists to wage war on their own tourists</t>
-  </si>
-  <si>
-    <t>PM to chair emergency Cobra meeting after Tunisia attacks</t>
-  </si>
-  <si>
-    <t>Family shocked as Tunis 'break-dance star' becomes mass murderer</t>
-  </si>
-  <si>
-    <t>Duke of Sussex unveils Sousse and Bardo Memorial</t>
-  </si>
-  <si>
     <t>Security Check Required</t>
   </si>
   <si>
     <t>Islamic State Attacks Tourists On Tunisia Beach: Kills 38 In Sousse</t>
   </si>
   <si>
+    <t>2016-03-01T16:31:01UTC</t>
+  </si>
+  <si>
     <t>2015-06-27T06:07:00UTC</t>
   </si>
   <si>
+    <t>2015-06-27T07:45:35UTC</t>
+  </si>
+  <si>
+    <t>2015-06-28T00:13:00UTC</t>
+  </si>
+  <si>
+    <t>2015-07-04T21:11:00UTC</t>
+  </si>
+  <si>
+    <t>2019-03-04T12:51:00UTC</t>
+  </si>
+  <si>
     <t>2017-11-07T00:00:00UTC</t>
   </si>
   <si>
-    <t>2016-03-01T16:31:01UTC</t>
-  </si>
-  <si>
     <t>2015-07-02T23:03:26UTC</t>
   </si>
   <si>
-    <t>2015-07-04T21:11:00UTC</t>
-  </si>
-  <si>
-    <t>2015-06-27T07:45:35UTC</t>
-  </si>
-  <si>
-    <t>2015-06-28T00:13:00UTC</t>
-  </si>
-  <si>
-    <t>2019-03-04T12:51:00UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -94,37 +94,37 @@
     <t>unknown</t>
   </si>
   <si>
+    <t>day_31_beyond</t>
+  </si>
+  <si>
     <t>day_1</t>
   </si>
   <si>
-    <t>day_31_beyond</t>
-  </si>
-  <si>
     <t>day_2_to_30</t>
   </si>
   <si>
+    <t>https://www.bbc.com/news/uk-35698927</t>
+  </si>
+  <si>
     <t>http://www.timesofisrael.com/islamic-state-claims-deadly-hotel-attack-in-tunisia/</t>
   </si>
   <si>
+    <t>http://www.itv.com/news/update/2015-06-27/pm-to-chair-emergency-cobra-meeting-after-tunisia-attacks/</t>
+  </si>
+  <si>
+    <t>http://www.timesofisrael.com/tunisia-gunman-was-local-break-dancing-celebrity-fan-of-real-madrid/</t>
+  </si>
+  <si>
+    <t>https://www.telegraph.co.uk/news/worldnews/africaandindianocean/tunisia/11718577/How-Britain-and-the-EU-allowed-jihadists-to-wage-war-on-their-own-tourists.html</t>
+  </si>
+  <si>
+    <t>https://www.gov.uk/government/news/duke-of-sussex-unveils-sousse-and-bardo-memorial</t>
+  </si>
+  <si>
     <t>http://www.dw.com/en/tunisia-to-close-80-mosques-following-terror-attack/a-18544478</t>
   </si>
   <si>
-    <t>https://www.bbc.com/news/uk-35698927</t>
-  </si>
-  <si>
     <t>https://www.bbc.co.uk/news/uk-33358267</t>
-  </si>
-  <si>
-    <t>https://www.telegraph.co.uk/news/worldnews/africaandindianocean/tunisia/11718577/How-Britain-and-the-EU-allowed-jihadists-to-wage-war-on-their-own-tourists.html</t>
-  </si>
-  <si>
-    <t>http://www.itv.com/news/update/2015-06-27/pm-to-chair-emergency-cobra-meeting-after-tunisia-attacks/</t>
-  </si>
-  <si>
-    <t>http://www.timesofisrael.com/tunisia-gunman-was-local-break-dancing-celebrity-fan-of-real-madrid/</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/news/duke-of-sussex-unveils-sousse-and-bardo-memorial</t>
   </si>
   <si>
     <t>https://www.facebook.com/Thomsonholidays</t>
@@ -532,7 +532,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -549,7 +549,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>865</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -583,7 +583,7 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -617,7 +617,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1347</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -634,10 +634,10 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>865</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>35</v>
@@ -651,10 +651,10 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>1347</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>36</v>
